--- a/App/backend/assets/products_to_upload/all_products.xlsx
+++ b/App/backend/assets/products_to_upload/all_products.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="164">
   <si>
     <t xml:space="preserve">0</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Casual_Shirts_2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordinary Choice</t>
+    <t xml:space="preserve">Everlane</t>
   </si>
   <si>
     <t xml:space="preserve">large</t>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">Casual_Shirts_3.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">James Perse</t>
+  </si>
+  <si>
     <t xml:space="preserve">medium</t>
   </si>
   <si>
@@ -106,24 +109,36 @@
     <t xml:space="preserve">Casual_Shirts_4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Carhartt</t>
+  </si>
+  <si>
     <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">Casual_Shirts_5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Under Armour</t>
+  </si>
+  <si>
     <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">Casual_Shirts_6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Brooklinen</t>
+  </si>
+  <si>
     <t xml:space="preserve">yellow</t>
   </si>
   <si>
     <t xml:space="preserve">Casual_Shirts_7.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Uniqlo</t>
+  </si>
+  <si>
     <t xml:space="preserve">purple</t>
   </si>
   <si>
@@ -133,54 +148,102 @@
     <t xml:space="preserve">Makeup_1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Loreal </t>
+  </si>
+  <si>
     <t xml:space="preserve">Makeup_2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Gilette</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makeup_3.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Nivea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makeup_4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Estée Lauder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makeup_5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Clinique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makeup_6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerlain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makeup_7.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Shiseido</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes</t>
   </si>
   <si>
     <t xml:space="preserve">Perfumes_1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Coco Mademoiselle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Chance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_3.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Lancôme</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Marc Jacobs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Dolce &amp; Gabbana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Dior</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_7.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Philosophy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_8.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Chanel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfumes_9.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Dunhill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shirts</t>
   </si>
   <si>
@@ -211,30 +274,57 @@
     <t xml:space="preserve">Shoes_1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Nike</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">adidas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_3.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">New Balance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">ASICS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Kering</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">PUMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_7.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Skechers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_8.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Fila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shoes_9.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Bata</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sports Shoes</t>
   </si>
   <si>
@@ -262,64 +352,124 @@
     <t xml:space="preserve">Sunglasses_1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Browline Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Mirrored Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_3.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Round Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Bright and Bold Sunglasses </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Aviator Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Square Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_7.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Oversized Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_8.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Embellished Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_9.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">White Frame Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunglasses_10.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Cat Eye Sunglasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch</t>
   </si>
   <si>
     <t xml:space="preserve">Watch_1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Rolex</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Patek Philippe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_3.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Audemars Piguet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">A.Lange &amp; Söhne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_5.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Omega</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Blancpain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_7.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">IWC Schaffhausen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_8.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Jaeger-LeCoultre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_9.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">G Shock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Watch_10.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rado</t>
   </si>
   <si>
     <t xml:space="preserve">reference_for_all_orders</t>
@@ -479,11 +629,11 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -592,16 +742,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>483</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,10 +762,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>38</v>
@@ -624,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,10 +785,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>218</v>
@@ -647,7 +797,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,19 +808,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>344</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,10 +831,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>787</v>
@@ -693,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,13 +851,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>424</v>
@@ -724,19 +874,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1312</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>22</v>
@@ -747,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>676</v>
@@ -762,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>87</v>
@@ -785,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,22 +943,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>6756</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>354</v>
@@ -831,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>98</v>
@@ -854,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,19 +1012,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>534</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>18</v>
@@ -885,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>434</v>
@@ -908,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>589</v>
@@ -931,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>483</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,13 +1104,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>38</v>
@@ -969,7 +1119,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,13 +1127,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>218</v>
@@ -992,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,22 +1150,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>344</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,13 +1173,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>787</v>
@@ -1038,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,13 +1196,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>424</v>
@@ -1069,19 +1219,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1312</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>22</v>
@@ -1092,10 +1242,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>20</v>
@@ -1107,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,13 +1265,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>87</v>
@@ -1130,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,22 +1288,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>6756</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,13 +1311,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>354</v>
@@ -1176,7 +1326,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,13 +1334,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>98</v>
@@ -1199,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,19 +1357,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>534</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>18</v>
@@ -1230,13 +1380,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>434</v>
@@ -1253,13 +1403,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>589</v>
@@ -1276,22 +1426,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>483</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,13 +1449,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>38</v>
@@ -1314,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,13 +1472,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>218</v>
@@ -1337,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,22 +1495,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>344</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,13 +1518,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>787</v>
@@ -1383,7 +1533,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,13 +1541,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>424</v>
@@ -1414,19 +1564,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1312</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>22</v>
@@ -1437,13 +1587,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>676</v>
@@ -1452,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,13 +1610,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>87</v>
@@ -1475,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,22 +1633,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>6756</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,13 +1656,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>354</v>
@@ -1521,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,13 +1679,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>98</v>
@@ -1544,7 +1694,7 @@
         <v>21</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,19 +1702,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>534</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>18</v>
@@ -1575,13 +1725,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>434</v>
@@ -1598,13 +1748,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>589</v>
@@ -1621,22 +1771,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>483</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>38</v>
@@ -1659,7 +1809,7 @@
         <v>17</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,13 +1817,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>218</v>
@@ -1682,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,22 +1840,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>344</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>787</v>
@@ -1728,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,13 +1886,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>424</v>
@@ -1759,19 +1909,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1312</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>22</v>
@@ -1782,13 +1932,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>676</v>
@@ -1797,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,13 +1955,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>87</v>
@@ -1820,7 +1970,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,22 +1978,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>6756</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,13 +2001,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>354</v>
@@ -1866,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,13 +2024,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>98</v>
@@ -1889,7 +2039,7 @@
         <v>21</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,19 +2047,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>534</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>18</v>
@@ -1920,13 +2070,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>676</v>
@@ -1943,13 +2093,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>87</v>
@@ -1966,22 +2116,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>6756</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,13 +2139,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>354</v>
@@ -2004,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,13 +2162,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>98</v>
@@ -2027,7 +2177,7 @@
         <v>21</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2202,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2076,22 +2226,22 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2116,22 +2266,22 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2156,34 +2306,34 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
